--- a/doc/接口文档/角色接口.xlsx
+++ b/doc/接口文档/角色接口.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20505" windowHeight="9195"/>
+    <workbookView windowWidth="22515" windowHeight="10485"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48">
   <si>
     <t>添加角色</t>
   </si>
@@ -146,6 +146,21 @@
     <t>result(json数组)</t>
   </si>
   <si>
+    <t>permissionList(json数组)</t>
+  </si>
+  <si>
+    <t>permissionId</t>
+  </si>
+  <si>
+    <t>权限Id</t>
+  </si>
+  <si>
+    <t>permissionName</t>
+  </si>
+  <si>
+    <t>权限名称</t>
+  </si>
+  <si>
     <t>获取角色详情</t>
   </si>
   <si>
@@ -162,12 +177,6 @@
   </si>
   <si>
     <t>permission(json数组)</t>
-  </si>
-  <si>
-    <t>permissionId</t>
-  </si>
-  <si>
-    <t>权限Id</t>
   </si>
 </sst>
 </file>
@@ -175,10 +184,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -210,8 +219,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -219,7 +265,61 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -236,59 +336,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -301,45 +349,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
@@ -391,151 +400,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -552,15 +561,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -590,15 +590,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -644,6 +635,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -660,10 +669,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -672,130 +681,130 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -827,10 +836,10 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="35" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="36" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="35" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="36" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="35">
@@ -1184,10 +1193,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R83"/>
+  <dimension ref="A1:R86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="F79" sqref="F79:G79"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="I97" sqref="I97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2026,189 +2035,181 @@
       <c r="Q53" s="6"/>
       <c r="R53" s="6"/>
     </row>
-    <row r="59" spans="1:18">
-      <c r="A59" s="1" t="s">
+    <row r="54" spans="1:18">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
-      <c r="L59" s="1"/>
-      <c r="M59" s="1"/>
-      <c r="N59" s="1"/>
-      <c r="O59" s="1"/>
-      <c r="P59" s="5" t="s">
+      <c r="L54" s="8"/>
+      <c r="M54" s="8"/>
+      <c r="N54" s="8"/>
+      <c r="O54" s="8"/>
+      <c r="P54" s="6"/>
+      <c r="Q54" s="6"/>
+      <c r="R54" s="6"/>
+    </row>
+    <row r="55" spans="1:18">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="L55" s="8"/>
+      <c r="M55" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N55" s="8"/>
+      <c r="O55" s="8"/>
+      <c r="P55" s="6"/>
+      <c r="Q55" s="6"/>
+      <c r="R55" s="6"/>
+    </row>
+    <row r="56" spans="1:18">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="L56" s="8"/>
+      <c r="M56" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="N56" s="8"/>
+      <c r="O56" s="8"/>
+      <c r="P56" s="6"/>
+      <c r="Q56" s="6"/>
+      <c r="R56" s="6"/>
+    </row>
+    <row r="62" spans="1:18">
+      <c r="A62" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+      <c r="O62" s="1"/>
+      <c r="P62" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="Q59" s="5"/>
-      <c r="R59" s="6">
+      <c r="Q62" s="5"/>
+      <c r="R62" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="1:18">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
-      <c r="K60" s="1"/>
-      <c r="L60" s="1"/>
-      <c r="M60" s="1"/>
-      <c r="N60" s="1"/>
-      <c r="O60" s="1"/>
-      <c r="P60" s="5" t="s">
+    <row r="63" spans="1:18">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+      <c r="O63" s="1"/>
+      <c r="P63" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="Q60" s="5"/>
-      <c r="R60" s="6">
+      <c r="Q63" s="5"/>
+      <c r="R63" s="6">
         <v>101</v>
       </c>
     </row>
-    <row r="61" spans="1:18">
-      <c r="A61" s="2" t="s">
+    <row r="64" spans="1:18">
+      <c r="A64" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2" t="s">
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F61" s="2" t="s">
+      <c r="F64" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2" t="s">
+      <c r="G64" s="2"/>
+      <c r="H64" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I61" s="2"/>
-      <c r="J61" s="2"/>
-      <c r="K61" s="2" t="s">
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L61" s="2"/>
-      <c r="M61" s="2"/>
-      <c r="N61" s="2"/>
-      <c r="O61" s="2"/>
-      <c r="P61" s="6"/>
-      <c r="Q61" s="6"/>
-      <c r="R61" s="6"/>
-    </row>
-    <row r="62" spans="1:18">
-      <c r="A62" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I62" s="3"/>
-      <c r="J62" s="3"/>
-      <c r="K62" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L62" s="3"/>
-      <c r="M62" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="N62" s="3"/>
-      <c r="O62" s="3"/>
-      <c r="P62" s="6"/>
-      <c r="Q62" s="6"/>
-      <c r="R62" s="6"/>
-    </row>
-    <row r="63" spans="1:18">
-      <c r="A63" s="3"/>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G63" s="3"/>
-      <c r="H63" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I63" s="3"/>
-      <c r="J63" s="3"/>
-      <c r="K63" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L63" s="3"/>
-      <c r="M63" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N63" s="3"/>
-      <c r="O63" s="3"/>
-      <c r="P63" s="6"/>
-      <c r="Q63" s="6"/>
-      <c r="R63" s="6"/>
-    </row>
-    <row r="64" spans="1:18">
-      <c r="A64" s="3"/>
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G64" s="3"/>
-      <c r="H64" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I64" s="3"/>
-      <c r="J64" s="3"/>
-      <c r="K64" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L64" s="7"/>
-      <c r="M64" s="7"/>
-      <c r="N64" s="7"/>
-      <c r="O64" s="7"/>
+      <c r="L64" s="2"/>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
       <c r="P64" s="6"/>
       <c r="Q64" s="6"/>
       <c r="R64" s="6"/>
     </row>
     <row r="65" spans="1:18">
-      <c r="A65" s="3"/>
+      <c r="A65" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
+      <c r="E65" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="G65" s="3"/>
-      <c r="H65" s="3"/>
+      <c r="H65" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="I65" s="3"/>
       <c r="J65" s="3"/>
       <c r="K65" s="3" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="L65" s="3"/>
       <c r="M65" s="3" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="N65" s="3"/>
       <c r="O65" s="3"/>
@@ -2222,17 +2223,21 @@
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
+      <c r="F66" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="G66" s="3"/>
-      <c r="H66" s="3"/>
+      <c r="H66" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="I66" s="3"/>
       <c r="J66" s="3"/>
       <c r="K66" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L66" s="3"/>
       <c r="M66" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N66" s="3"/>
       <c r="O66" s="3"/>
@@ -2246,236 +2251,310 @@
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
+      <c r="F67" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="G67" s="3"/>
-      <c r="H67" s="3"/>
+      <c r="H67" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
-      <c r="K67" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L67" s="3"/>
-      <c r="M67" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N67" s="3"/>
-      <c r="O67" s="3"/>
+      <c r="K67" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="L67" s="7"/>
+      <c r="M67" s="7"/>
+      <c r="N67" s="7"/>
+      <c r="O67" s="7"/>
       <c r="P67" s="6"/>
       <c r="Q67" s="6"/>
       <c r="R67" s="6"/>
     </row>
-    <row r="76" spans="1:18">
-      <c r="A76" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
-      <c r="H76" s="1"/>
-      <c r="I76" s="1"/>
-      <c r="J76" s="1"/>
-      <c r="K76" s="1"/>
-      <c r="L76" s="1"/>
-      <c r="M76" s="1"/>
-      <c r="N76" s="1"/>
-      <c r="O76" s="1"/>
-      <c r="P76" s="5" t="s">
+    <row r="68" spans="1:18">
+      <c r="A68" s="3"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="3"/>
+      <c r="I68" s="3"/>
+      <c r="J68" s="3"/>
+      <c r="K68" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L68" s="3"/>
+      <c r="M68" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N68" s="3"/>
+      <c r="O68" s="3"/>
+      <c r="P68" s="6"/>
+      <c r="Q68" s="6"/>
+      <c r="R68" s="6"/>
+    </row>
+    <row r="69" spans="1:18">
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
+      <c r="I69" s="3"/>
+      <c r="J69" s="3"/>
+      <c r="K69" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L69" s="3"/>
+      <c r="M69" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N69" s="3"/>
+      <c r="O69" s="3"/>
+      <c r="P69" s="6"/>
+      <c r="Q69" s="6"/>
+      <c r="R69" s="6"/>
+    </row>
+    <row r="70" spans="1:18">
+      <c r="A70" s="3"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="3"/>
+      <c r="K70" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L70" s="3"/>
+      <c r="M70" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N70" s="3"/>
+      <c r="O70" s="3"/>
+      <c r="P70" s="6"/>
+      <c r="Q70" s="6"/>
+      <c r="R70" s="6"/>
+    </row>
+    <row r="79" spans="1:18">
+      <c r="A79" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+      <c r="O79" s="1"/>
+      <c r="P79" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="Q76" s="5"/>
-      <c r="R76" s="6">
+      <c r="Q79" s="5"/>
+      <c r="R79" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="1:18">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
-      <c r="H77" s="1"/>
-      <c r="I77" s="1"/>
-      <c r="J77" s="1"/>
-      <c r="K77" s="1"/>
-      <c r="L77" s="1"/>
-      <c r="M77" s="1"/>
-      <c r="N77" s="1"/>
-      <c r="O77" s="1"/>
-      <c r="P77" s="5" t="s">
+    <row r="80" spans="1:18">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+      <c r="O80" s="1"/>
+      <c r="P80" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="Q77" s="5"/>
-      <c r="R77" s="6">
+      <c r="Q80" s="5"/>
+      <c r="R80" s="6">
         <v>101</v>
       </c>
     </row>
-    <row r="78" spans="1:18">
-      <c r="A78" s="2" t="s">
+    <row r="81" spans="1:18">
+      <c r="A81" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B78" s="2"/>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
-      <c r="E78" s="2" t="s">
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F78" s="2" t="s">
+      <c r="F81" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G78" s="2"/>
-      <c r="H78" s="2" t="s">
+      <c r="G81" s="2"/>
+      <c r="H81" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I78" s="2"/>
-      <c r="J78" s="2"/>
-      <c r="K78" s="2" t="s">
+      <c r="I81" s="2"/>
+      <c r="J81" s="2"/>
+      <c r="K81" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L78" s="2"/>
-      <c r="M78" s="2"/>
-      <c r="N78" s="2"/>
-      <c r="O78" s="2"/>
-      <c r="P78" s="6"/>
-      <c r="Q78" s="6"/>
-      <c r="R78" s="6"/>
-    </row>
-    <row r="79" spans="1:18">
-      <c r="A79" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B79" s="3"/>
-      <c r="C79" s="3"/>
-      <c r="D79" s="3"/>
-      <c r="E79" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F79" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G79" s="3"/>
-      <c r="H79" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I79" s="3"/>
-      <c r="J79" s="3"/>
-      <c r="K79" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L79" s="3"/>
-      <c r="M79" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="N79" s="3"/>
-      <c r="O79" s="3"/>
-      <c r="P79" s="6"/>
-      <c r="Q79" s="6"/>
-      <c r="R79" s="6"/>
-    </row>
-    <row r="80" spans="1:18">
-      <c r="A80" s="3"/>
-      <c r="B80" s="3"/>
-      <c r="C80" s="3"/>
-      <c r="D80" s="3"/>
-      <c r="E80" s="3"/>
-      <c r="F80" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G80" s="3"/>
-      <c r="H80" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I80" s="3"/>
-      <c r="J80" s="3"/>
-      <c r="K80" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L80" s="3"/>
-      <c r="M80" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N80" s="3"/>
-      <c r="O80" s="3"/>
-      <c r="P80" s="6"/>
-      <c r="Q80" s="6"/>
-      <c r="R80" s="6"/>
-    </row>
-    <row r="81" spans="1:18">
-      <c r="A81" s="8"/>
-      <c r="B81" s="8"/>
-      <c r="C81" s="8"/>
-      <c r="D81" s="8"/>
-      <c r="E81" s="8"/>
-      <c r="F81" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G81" s="8"/>
-      <c r="H81" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="I81" s="8"/>
-      <c r="J81" s="8"/>
-      <c r="K81" s="8"/>
-      <c r="L81" s="8"/>
-      <c r="M81" s="8"/>
-      <c r="N81" s="8"/>
-      <c r="O81" s="8"/>
+      <c r="L81" s="2"/>
+      <c r="M81" s="2"/>
+      <c r="N81" s="2"/>
+      <c r="O81" s="2"/>
       <c r="P81" s="6"/>
       <c r="Q81" s="6"/>
       <c r="R81" s="6"/>
     </row>
     <row r="82" spans="1:18">
-      <c r="A82" s="8"/>
-      <c r="B82" s="8"/>
-      <c r="C82" s="8"/>
-      <c r="D82" s="8"/>
-      <c r="E82" s="8"/>
-      <c r="F82" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="G82" s="9"/>
-      <c r="H82" s="9"/>
-      <c r="I82" s="9"/>
-      <c r="J82" s="9"/>
-      <c r="K82" s="8"/>
-      <c r="L82" s="8"/>
-      <c r="M82" s="8"/>
-      <c r="N82" s="8"/>
-      <c r="O82" s="8"/>
+      <c r="A82" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B82" s="3"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G82" s="3"/>
+      <c r="H82" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I82" s="3"/>
+      <c r="J82" s="3"/>
+      <c r="K82" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L82" s="3"/>
+      <c r="M82" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
       <c r="P82" s="6"/>
       <c r="Q82" s="6"/>
       <c r="R82" s="6"/>
     </row>
     <row r="83" spans="1:18">
-      <c r="A83" s="10"/>
-      <c r="B83" s="10"/>
-      <c r="C83" s="10"/>
-      <c r="D83" s="10"/>
-      <c r="E83" s="10"/>
-      <c r="F83" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="G83" s="9"/>
-      <c r="H83" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="I83" s="9"/>
-      <c r="J83" s="9"/>
-      <c r="K83" s="10"/>
-      <c r="L83" s="10"/>
-      <c r="M83" s="10"/>
-      <c r="N83" s="10"/>
-      <c r="O83" s="10"/>
+      <c r="A83" s="3"/>
+      <c r="B83" s="3"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G83" s="3"/>
+      <c r="H83" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I83" s="3"/>
+      <c r="J83" s="3"/>
+      <c r="K83" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L83" s="3"/>
+      <c r="M83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N83" s="3"/>
+      <c r="O83" s="3"/>
       <c r="P83" s="6"/>
       <c r="Q83" s="6"/>
       <c r="R83" s="6"/>
     </row>
+    <row r="84" spans="1:18">
+      <c r="A84" s="9"/>
+      <c r="B84" s="9"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G84" s="9"/>
+      <c r="H84" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c r="L84" s="9"/>
+      <c r="M84" s="9"/>
+      <c r="N84" s="9"/>
+      <c r="O84" s="9"/>
+      <c r="P84" s="6"/>
+      <c r="Q84" s="6"/>
+      <c r="R84" s="6"/>
+    </row>
+    <row r="85" spans="1:18">
+      <c r="A85" s="9"/>
+      <c r="B85" s="9"/>
+      <c r="C85" s="9"/>
+      <c r="D85" s="9"/>
+      <c r="E85" s="9"/>
+      <c r="F85" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G85" s="8"/>
+      <c r="H85" s="8"/>
+      <c r="I85" s="8"/>
+      <c r="J85" s="8"/>
+      <c r="K85" s="9"/>
+      <c r="L85" s="9"/>
+      <c r="M85" s="9"/>
+      <c r="N85" s="9"/>
+      <c r="O85" s="9"/>
+      <c r="P85" s="6"/>
+      <c r="Q85" s="6"/>
+      <c r="R85" s="6"/>
+    </row>
+    <row r="86" spans="1:18">
+      <c r="A86" s="10"/>
+      <c r="B86" s="10"/>
+      <c r="C86" s="10"/>
+      <c r="D86" s="10"/>
+      <c r="E86" s="10"/>
+      <c r="F86" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G86" s="8"/>
+      <c r="H86" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I86" s="8"/>
+      <c r="J86" s="8"/>
+      <c r="K86" s="10"/>
+      <c r="L86" s="10"/>
+      <c r="M86" s="10"/>
+      <c r="N86" s="10"/>
+      <c r="O86" s="10"/>
+      <c r="P86" s="6"/>
+      <c r="Q86" s="6"/>
+      <c r="R86" s="6"/>
+    </row>
   </sheetData>
-  <mergeCells count="164">
+  <mergeCells count="169">
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="A3:D3"/>
@@ -2580,24 +2659,18 @@
     <mergeCell ref="H53:J53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:O53"/>
-    <mergeCell ref="P59:Q59"/>
-    <mergeCell ref="P60:Q60"/>
-    <mergeCell ref="A61:D61"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="H61:J61"/>
-    <mergeCell ref="K61:O61"/>
-    <mergeCell ref="A62:D62"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="H62:J62"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="M62:O62"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="H63:J63"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="M63:O63"/>
+    <mergeCell ref="K54:O54"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="M55:O55"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="A64:D64"/>
     <mergeCell ref="F64:G64"/>
     <mergeCell ref="H64:J64"/>
     <mergeCell ref="K64:O64"/>
+    <mergeCell ref="A65:D65"/>
     <mergeCell ref="F65:G65"/>
     <mergeCell ref="H65:J65"/>
     <mergeCell ref="K65:L65"/>
@@ -2608,38 +2681,49 @@
     <mergeCell ref="M66:O66"/>
     <mergeCell ref="F67:G67"/>
     <mergeCell ref="H67:J67"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="M67:O67"/>
-    <mergeCell ref="P76:Q76"/>
-    <mergeCell ref="P77:Q77"/>
-    <mergeCell ref="A78:D78"/>
-    <mergeCell ref="F78:G78"/>
-    <mergeCell ref="H78:J78"/>
-    <mergeCell ref="K78:O78"/>
-    <mergeCell ref="A79:D79"/>
-    <mergeCell ref="F79:G79"/>
-    <mergeCell ref="H79:J79"/>
-    <mergeCell ref="K79:L79"/>
-    <mergeCell ref="M79:O79"/>
-    <mergeCell ref="F80:G80"/>
-    <mergeCell ref="H80:J80"/>
-    <mergeCell ref="K80:L80"/>
-    <mergeCell ref="M80:O80"/>
+    <mergeCell ref="K67:O67"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="H68:J68"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="M68:O68"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="H69:J69"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="M69:O69"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="H70:J70"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="M70:O70"/>
+    <mergeCell ref="P79:Q79"/>
+    <mergeCell ref="P80:Q80"/>
+    <mergeCell ref="A81:D81"/>
     <mergeCell ref="F81:G81"/>
     <mergeCell ref="H81:J81"/>
-    <mergeCell ref="K81:L81"/>
-    <mergeCell ref="M81:O81"/>
-    <mergeCell ref="F82:J82"/>
+    <mergeCell ref="K81:O81"/>
+    <mergeCell ref="A82:D82"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="H82:J82"/>
     <mergeCell ref="K82:L82"/>
     <mergeCell ref="M82:O82"/>
     <mergeCell ref="F83:G83"/>
     <mergeCell ref="H83:J83"/>
+    <mergeCell ref="K83:L83"/>
+    <mergeCell ref="M83:O83"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="H84:J84"/>
+    <mergeCell ref="K84:L84"/>
+    <mergeCell ref="M84:O84"/>
+    <mergeCell ref="F85:J85"/>
+    <mergeCell ref="K85:L85"/>
+    <mergeCell ref="M85:O85"/>
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="H86:J86"/>
     <mergeCell ref="A1:O2"/>
     <mergeCell ref="A17:O18"/>
     <mergeCell ref="A30:O31"/>
     <mergeCell ref="A44:O45"/>
-    <mergeCell ref="A59:O60"/>
-    <mergeCell ref="A76:O77"/>
+    <mergeCell ref="A62:O63"/>
+    <mergeCell ref="A79:O80"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/doc/接口文档/角色接口.xlsx
+++ b/doc/接口文档/角色接口.xlsx
@@ -184,10 +184,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -219,9 +219,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,45 +265,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,17 +287,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -326,8 +309,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -342,8 +333,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -400,43 +400,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,6 +502,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -460,97 +520,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -561,6 +561,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -575,51 +590,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -642,11 +612,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -661,6 +637,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -669,10 +669,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -681,133 +681,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1195,8 +1195,8 @@
   <sheetPr/>
   <dimension ref="A1:R86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="I97" sqref="I97"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A79" sqref="A79:O80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
